--- a/Team-Data/2007-08/12-23-2007-08.xlsx
+++ b/Team-Data/2007-08/12-23-2007-08.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>-0.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AE2" t="n">
         <v>15</v>
@@ -777,7 +844,7 @@
         <v>29</v>
       </c>
       <c r="AO2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AP2" t="n">
         <v>6</v>
@@ -801,13 +868,13 @@
         <v>15</v>
       </c>
       <c r="AW2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AX2" t="n">
         <v>7</v>
       </c>
       <c r="AY2" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AZ2" t="n">
         <v>15</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>12-23-2007-08</t>
+          <t>2007-12-23</t>
         </is>
       </c>
     </row>
@@ -848,28 +915,28 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E3" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F3" t="n">
         <v>3</v>
       </c>
       <c r="G3" t="n">
-        <v>0.88</v>
+        <v>0.875</v>
       </c>
       <c r="H3" t="n">
         <v>48.4</v>
       </c>
       <c r="I3" t="n">
-        <v>35.7</v>
+        <v>35.6</v>
       </c>
       <c r="J3" t="n">
-        <v>74.40000000000001</v>
+        <v>74.5</v>
       </c>
       <c r="K3" t="n">
-        <v>0.48</v>
+        <v>0.478</v>
       </c>
       <c r="L3" t="n">
         <v>7.4</v>
@@ -878,25 +945,25 @@
         <v>19.3</v>
       </c>
       <c r="N3" t="n">
-        <v>0.386</v>
+        <v>0.384</v>
       </c>
       <c r="O3" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="P3" t="n">
-        <v>27.8</v>
+        <v>28</v>
       </c>
       <c r="Q3" t="n">
         <v>0.774</v>
       </c>
       <c r="R3" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="S3" t="n">
         <v>32.8</v>
       </c>
       <c r="T3" t="n">
-        <v>41.6</v>
+        <v>41.8</v>
       </c>
       <c r="U3" t="n">
         <v>22.8</v>
@@ -905,28 +972,28 @@
         <v>15.5</v>
       </c>
       <c r="W3" t="n">
-        <v>9.4</v>
+        <v>9.5</v>
       </c>
       <c r="X3" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="AA3" t="n">
         <v>23</v>
       </c>
       <c r="AB3" t="n">
-        <v>100.4</v>
+        <v>100.3</v>
       </c>
       <c r="AC3" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="AD3" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AE3" t="n">
         <v>1</v>
@@ -941,7 +1008,7 @@
         <v>6</v>
       </c>
       <c r="AI3" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AJ3" t="n">
         <v>30</v>
@@ -962,7 +1029,7 @@
         <v>7</v>
       </c>
       <c r="AP3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AQ3" t="n">
         <v>9</v>
@@ -971,16 +1038,16 @@
         <v>29</v>
       </c>
       <c r="AS3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AT3" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AU3" t="n">
         <v>7</v>
       </c>
       <c r="AV3" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AW3" t="n">
         <v>2</v>
@@ -992,7 +1059,7 @@
         <v>9</v>
       </c>
       <c r="AZ3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BA3" t="n">
         <v>7</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>12-23-2007-08</t>
+          <t>2007-12-23</t>
         </is>
       </c>
     </row>
@@ -1108,13 +1175,13 @@
         <v>-5</v>
       </c>
       <c r="AD4" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AE4" t="n">
         <v>23</v>
       </c>
       <c r="AF4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG4" t="n">
         <v>23</v>
@@ -1162,7 +1229,7 @@
         <v>24</v>
       </c>
       <c r="AV4" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AW4" t="n">
         <v>9</v>
@@ -1174,7 +1241,7 @@
         <v>24</v>
       </c>
       <c r="AZ4" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BA4" t="n">
         <v>15</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>12-23-2007-08</t>
+          <t>2007-12-23</t>
         </is>
       </c>
     </row>
@@ -1290,13 +1357,13 @@
         <v>-4.8</v>
       </c>
       <c r="AD5" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AE5" t="n">
         <v>24</v>
       </c>
       <c r="AF5" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG5" t="n">
         <v>24</v>
@@ -1338,7 +1405,7 @@
         <v>20</v>
       </c>
       <c r="AT5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AU5" t="n">
         <v>13</v>
@@ -1356,7 +1423,7 @@
         <v>29</v>
       </c>
       <c r="AZ5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA5" t="n">
         <v>19</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>12-23-2007-08</t>
+          <t>2007-12-23</t>
         </is>
       </c>
     </row>
@@ -1394,16 +1461,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E6" t="n">
         <v>12</v>
       </c>
       <c r="F6" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G6" t="n">
-        <v>0.429</v>
+        <v>0.444</v>
       </c>
       <c r="H6" t="n">
         <v>48.7</v>
@@ -1412,82 +1479,82 @@
         <v>35.7</v>
       </c>
       <c r="J6" t="n">
-        <v>81.90000000000001</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="K6" t="n">
-        <v>0.436</v>
+        <v>0.437</v>
       </c>
       <c r="L6" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="M6" t="n">
         <v>19</v>
       </c>
       <c r="N6" t="n">
-        <v>0.355</v>
+        <v>0.361</v>
       </c>
       <c r="O6" t="n">
         <v>18.3</v>
       </c>
       <c r="P6" t="n">
-        <v>25.4</v>
+        <v>25.3</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.72</v>
+        <v>0.723</v>
       </c>
       <c r="R6" t="n">
-        <v>12.4</v>
+        <v>12.2</v>
       </c>
       <c r="S6" t="n">
-        <v>30.6</v>
+        <v>30.7</v>
       </c>
       <c r="T6" t="n">
-        <v>43</v>
+        <v>42.9</v>
       </c>
       <c r="U6" t="n">
         <v>19.1</v>
       </c>
       <c r="V6" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="W6" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="X6" t="n">
         <v>4.7</v>
       </c>
       <c r="Y6" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Z6" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="AA6" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="AB6" t="n">
         <v>96.40000000000001</v>
       </c>
       <c r="AC6" t="n">
-        <v>-4.5</v>
+        <v>-4.4</v>
       </c>
       <c r="AD6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AE6" t="n">
         <v>18</v>
       </c>
       <c r="AF6" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AH6" t="n">
         <v>1</v>
       </c>
       <c r="AI6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ6" t="n">
         <v>13</v>
@@ -1499,10 +1566,10 @@
         <v>11</v>
       </c>
       <c r="AM6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AN6" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AO6" t="n">
         <v>19</v>
@@ -1514,28 +1581,28 @@
         <v>24</v>
       </c>
       <c r="AR6" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AS6" t="n">
         <v>16</v>
       </c>
       <c r="AT6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AU6" t="n">
         <v>27</v>
       </c>
       <c r="AV6" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AW6" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AX6" t="n">
         <v>20</v>
       </c>
       <c r="AY6" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AZ6" t="n">
         <v>24</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>12-23-2007-08</t>
+          <t>2007-12-23</t>
         </is>
       </c>
     </row>
@@ -1654,10 +1721,10 @@
         <v>3.9</v>
       </c>
       <c r="AD7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF7" t="n">
         <v>5</v>
@@ -1669,10 +1736,10 @@
         <v>21</v>
       </c>
       <c r="AI7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ7" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AK7" t="n">
         <v>4</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>12-23-2007-08</t>
+          <t>2007-12-23</t>
         </is>
       </c>
     </row>
@@ -1758,97 +1825,97 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E8" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F8" t="n">
         <v>11</v>
       </c>
       <c r="G8" t="n">
-        <v>0.593</v>
+        <v>0.577</v>
       </c>
       <c r="H8" t="n">
         <v>48.4</v>
       </c>
       <c r="I8" t="n">
-        <v>38.6</v>
+        <v>38.5</v>
       </c>
       <c r="J8" t="n">
-        <v>84.8</v>
+        <v>84.5</v>
       </c>
       <c r="K8" t="n">
-        <v>0.455</v>
+        <v>0.456</v>
       </c>
       <c r="L8" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="M8" t="n">
-        <v>19.1</v>
+        <v>18.7</v>
       </c>
       <c r="N8" t="n">
-        <v>0.338</v>
+        <v>0.339</v>
       </c>
       <c r="O8" t="n">
-        <v>22.5</v>
+        <v>22.7</v>
       </c>
       <c r="P8" t="n">
-        <v>30.1</v>
+        <v>30.4</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.749</v>
+        <v>0.746</v>
       </c>
       <c r="R8" t="n">
         <v>11.3</v>
       </c>
       <c r="S8" t="n">
-        <v>32.8</v>
+        <v>32.5</v>
       </c>
       <c r="T8" t="n">
-        <v>44.1</v>
+        <v>43.8</v>
       </c>
       <c r="U8" t="n">
-        <v>23.5</v>
+        <v>23.7</v>
       </c>
       <c r="V8" t="n">
-        <v>16.3</v>
+        <v>16.2</v>
       </c>
       <c r="W8" t="n">
-        <v>9.699999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="X8" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>22</v>
+        <v>21.9</v>
       </c>
       <c r="AA8" t="n">
-        <v>24.6</v>
+        <v>24.7</v>
       </c>
       <c r="AB8" t="n">
         <v>106.1</v>
       </c>
       <c r="AC8" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="AD8" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="AE8" t="n">
         <v>9</v>
       </c>
       <c r="AF8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AG8" t="n">
         <v>9</v>
       </c>
       <c r="AH8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI8" t="n">
         <v>5</v>
@@ -1863,10 +1930,10 @@
         <v>13</v>
       </c>
       <c r="AM8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AN8" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO8" t="n">
         <v>1</v>
@@ -1875,22 +1942,22 @@
         <v>1</v>
       </c>
       <c r="AQ8" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AR8" t="n">
         <v>18</v>
       </c>
       <c r="AS8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AT8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AU8" t="n">
         <v>4</v>
       </c>
       <c r="AV8" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AW8" t="n">
         <v>1</v>
@@ -1902,16 +1969,16 @@
         <v>11</v>
       </c>
       <c r="AZ8" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BA8" t="n">
         <v>1</v>
       </c>
       <c r="BB8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BC8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>12-23-2007-08</t>
+          <t>2007-12-23</t>
         </is>
       </c>
     </row>
@@ -1940,46 +2007,46 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E9" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F9" t="n">
         <v>7</v>
       </c>
       <c r="G9" t="n">
-        <v>0.741</v>
+        <v>0.731</v>
       </c>
       <c r="H9" t="n">
         <v>48</v>
       </c>
       <c r="I9" t="n">
-        <v>36.8</v>
+        <v>37</v>
       </c>
       <c r="J9" t="n">
-        <v>79.59999999999999</v>
+        <v>79.7</v>
       </c>
       <c r="K9" t="n">
-        <v>0.462</v>
+        <v>0.464</v>
       </c>
       <c r="L9" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="M9" t="n">
-        <v>16</v>
+        <v>16.1</v>
       </c>
       <c r="N9" t="n">
-        <v>0.35</v>
+        <v>0.344</v>
       </c>
       <c r="O9" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="P9" t="n">
-        <v>25.8</v>
+        <v>25.7</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.76</v>
+        <v>0.759</v>
       </c>
       <c r="R9" t="n">
         <v>11.8</v>
@@ -1994,7 +2061,7 @@
         <v>23.1</v>
       </c>
       <c r="V9" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="W9" t="n">
         <v>6.9</v>
@@ -2003,22 +2070,22 @@
         <v>5.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="AA9" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="AB9" t="n">
-        <v>98.8</v>
+        <v>99</v>
       </c>
       <c r="AC9" t="n">
-        <v>9.1</v>
+        <v>9</v>
       </c>
       <c r="AD9" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="AE9" t="n">
         <v>2</v>
@@ -2033,31 +2100,31 @@
         <v>24</v>
       </c>
       <c r="AI9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ9" t="n">
         <v>20</v>
       </c>
       <c r="AK9" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AL9" t="n">
         <v>20</v>
       </c>
       <c r="AM9" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AN9" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AO9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ9" t="n">
         <v>14</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>13</v>
       </c>
       <c r="AR9" t="n">
         <v>13</v>
@@ -2078,10 +2145,10 @@
         <v>20</v>
       </c>
       <c r="AX9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AY9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AZ9" t="n">
         <v>7</v>
@@ -2090,7 +2157,7 @@
         <v>21</v>
       </c>
       <c r="BB9" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BC9" t="n">
         <v>2</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>12-23-2007-08</t>
+          <t>2007-12-23</t>
         </is>
       </c>
     </row>
@@ -2122,85 +2189,85 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E10" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F10" t="n">
         <v>12</v>
       </c>
       <c r="G10" t="n">
-        <v>0.571</v>
+        <v>0.556</v>
       </c>
       <c r="H10" t="n">
         <v>48.4</v>
       </c>
       <c r="I10" t="n">
-        <v>40.2</v>
+        <v>40.3</v>
       </c>
       <c r="J10" t="n">
-        <v>89.2</v>
+        <v>89.8</v>
       </c>
       <c r="K10" t="n">
-        <v>0.45</v>
+        <v>0.448</v>
       </c>
       <c r="L10" t="n">
-        <v>9.300000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="M10" t="n">
-        <v>26.7</v>
+        <v>27.1</v>
       </c>
       <c r="N10" t="n">
-        <v>0.349</v>
+        <v>0.347</v>
       </c>
       <c r="O10" t="n">
-        <v>18.5</v>
+        <v>18.4</v>
       </c>
       <c r="P10" t="n">
         <v>25.2</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.736</v>
+        <v>0.731</v>
       </c>
       <c r="R10" t="n">
-        <v>12.6</v>
+        <v>12.9</v>
       </c>
       <c r="S10" t="n">
-        <v>30.2</v>
+        <v>30</v>
       </c>
       <c r="T10" t="n">
-        <v>42.8</v>
+        <v>42.9</v>
       </c>
       <c r="U10" t="n">
-        <v>22.4</v>
+        <v>22.6</v>
       </c>
       <c r="V10" t="n">
-        <v>13.8</v>
+        <v>13.6</v>
       </c>
       <c r="W10" t="n">
         <v>9</v>
       </c>
       <c r="X10" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="Y10" t="n">
         <v>5.6</v>
       </c>
       <c r="Z10" t="n">
-        <v>23.1</v>
+        <v>23.4</v>
       </c>
       <c r="AA10" t="n">
         <v>22</v>
       </c>
       <c r="AB10" t="n">
-        <v>108.2</v>
+        <v>108.3</v>
       </c>
       <c r="AC10" t="n">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="AD10" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AE10" t="n">
         <v>9</v>
@@ -2212,7 +2279,7 @@
         <v>10</v>
       </c>
       <c r="AH10" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AI10" t="n">
         <v>2</v>
@@ -2221,7 +2288,7 @@
         <v>1</v>
       </c>
       <c r="AK10" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AL10" t="n">
         <v>1</v>
@@ -2239,34 +2306,34 @@
         <v>17</v>
       </c>
       <c r="AQ10" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AR10" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AS10" t="n">
         <v>18</v>
       </c>
       <c r="AT10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AU10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AW10" t="n">
         <v>4</v>
       </c>
       <c r="AX10" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AY10" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AZ10" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BA10" t="n">
         <v>14</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>12-23-2007-08</t>
+          <t>2007-12-23</t>
         </is>
       </c>
     </row>
@@ -2304,28 +2371,28 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
       </c>
       <c r="F11" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G11" t="n">
-        <v>0.464</v>
+        <v>0.481</v>
       </c>
       <c r="H11" t="n">
         <v>48.4</v>
       </c>
       <c r="I11" t="n">
-        <v>35.8</v>
+        <v>36.1</v>
       </c>
       <c r="J11" t="n">
-        <v>82.2</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="K11" t="n">
-        <v>0.436</v>
+        <v>0.437</v>
       </c>
       <c r="L11" t="n">
         <v>6.6</v>
@@ -2334,7 +2401,7 @@
         <v>19.9</v>
       </c>
       <c r="N11" t="n">
-        <v>0.333</v>
+        <v>0.33</v>
       </c>
       <c r="O11" t="n">
         <v>16.5</v>
@@ -2343,25 +2410,25 @@
         <v>22.9</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.718</v>
+        <v>0.719</v>
       </c>
       <c r="R11" t="n">
-        <v>12.8</v>
+        <v>13</v>
       </c>
       <c r="S11" t="n">
-        <v>31.8</v>
+        <v>31.9</v>
       </c>
       <c r="T11" t="n">
-        <v>44.6</v>
+        <v>44.9</v>
       </c>
       <c r="U11" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="V11" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="W11" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="X11" t="n">
         <v>5.5</v>
@@ -2370,34 +2437,34 @@
         <v>4.8</v>
       </c>
       <c r="Z11" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="AA11" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="AB11" t="n">
-        <v>94.7</v>
+        <v>95.2</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="AD11" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AE11" t="n">
         <v>16</v>
       </c>
       <c r="AF11" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AG11" t="n">
         <v>17</v>
       </c>
       <c r="AH11" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AI11" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AJ11" t="n">
         <v>11</v>
@@ -2409,10 +2476,10 @@
         <v>12</v>
       </c>
       <c r="AM11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AN11" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AO11" t="n">
         <v>26</v>
@@ -2424,37 +2491,37 @@
         <v>26</v>
       </c>
       <c r="AR11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AS11" t="n">
         <v>9</v>
       </c>
       <c r="AT11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU11" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AV11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AW11" t="n">
         <v>10</v>
       </c>
       <c r="AX11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY11" t="n">
         <v>15</v>
       </c>
       <c r="AZ11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA11" t="n">
         <v>24</v>
       </c>
       <c r="BB11" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BC11" t="n">
         <v>14</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>12-23-2007-08</t>
+          <t>2007-12-23</t>
         </is>
       </c>
     </row>
@@ -2564,10 +2631,10 @@
         <v>0.4</v>
       </c>
       <c r="AD12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE12" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AF12" t="n">
         <v>13</v>
@@ -2594,7 +2661,7 @@
         <v>3</v>
       </c>
       <c r="AN12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO12" t="n">
         <v>17</v>
@@ -2612,7 +2679,7 @@
         <v>4</v>
       </c>
       <c r="AT12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AU12" t="n">
         <v>3</v>
@@ -2633,13 +2700,13 @@
         <v>29</v>
       </c>
       <c r="BA12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BB12" t="n">
         <v>6</v>
       </c>
       <c r="BC12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>12-23-2007-08</t>
+          <t>2007-12-23</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>-4.9</v>
       </c>
       <c r="AD13" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AE13" t="n">
         <v>24</v>
@@ -2764,7 +2831,7 @@
         <v>29</v>
       </c>
       <c r="AJ13" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AK13" t="n">
         <v>29</v>
@@ -2776,7 +2843,7 @@
         <v>25</v>
       </c>
       <c r="AN13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO13" t="n">
         <v>8</v>
@@ -2794,13 +2861,13 @@
         <v>8</v>
       </c>
       <c r="AT13" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AU13" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AV13" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AW13" t="n">
         <v>21</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>12-23-2007-08</t>
+          <t>2007-12-23</t>
         </is>
       </c>
     </row>
@@ -2850,61 +2917,61 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E14" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F14" t="n">
         <v>10</v>
       </c>
       <c r="G14" t="n">
-        <v>0.63</v>
+        <v>0.615</v>
       </c>
       <c r="H14" t="n">
         <v>48</v>
       </c>
       <c r="I14" t="n">
-        <v>38.4</v>
+        <v>38.5</v>
       </c>
       <c r="J14" t="n">
-        <v>82.09999999999999</v>
+        <v>82</v>
       </c>
       <c r="K14" t="n">
-        <v>0.468</v>
+        <v>0.469</v>
       </c>
       <c r="L14" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="M14" t="n">
-        <v>20</v>
+        <v>19.8</v>
       </c>
       <c r="N14" t="n">
-        <v>0.348</v>
+        <v>0.35</v>
       </c>
       <c r="O14" t="n">
-        <v>22</v>
+        <v>22.3</v>
       </c>
       <c r="P14" t="n">
-        <v>28.8</v>
+        <v>29.2</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.763</v>
+        <v>0.766</v>
       </c>
       <c r="R14" t="n">
-        <v>11.1</v>
+        <v>11.3</v>
       </c>
       <c r="S14" t="n">
-        <v>33.9</v>
+        <v>34</v>
       </c>
       <c r="T14" t="n">
-        <v>45</v>
+        <v>45.3</v>
       </c>
       <c r="U14" t="n">
-        <v>23.3</v>
+        <v>23.5</v>
       </c>
       <c r="V14" t="n">
-        <v>15.8</v>
+        <v>16.1</v>
       </c>
       <c r="W14" t="n">
         <v>8.699999999999999</v>
@@ -2913,31 +2980,31 @@
         <v>4.9</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Z14" t="n">
-        <v>22</v>
+        <v>21.8</v>
       </c>
       <c r="AA14" t="n">
-        <v>23.1</v>
+        <v>23.2</v>
       </c>
       <c r="AB14" t="n">
-        <v>105.9</v>
+        <v>106.3</v>
       </c>
       <c r="AC14" t="n">
         <v>5</v>
       </c>
       <c r="AD14" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="AE14" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AF14" t="n">
         <v>6</v>
       </c>
       <c r="AG14" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AH14" t="n">
         <v>24</v>
@@ -2949,19 +3016,19 @@
         <v>12</v>
       </c>
       <c r="AK14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AL14" t="n">
         <v>10</v>
       </c>
       <c r="AM14" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AN14" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AO14" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AP14" t="n">
         <v>4</v>
@@ -2970,7 +3037,7 @@
         <v>12</v>
       </c>
       <c r="AR14" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AS14" t="n">
         <v>2</v>
@@ -2982,7 +3049,7 @@
         <v>5</v>
       </c>
       <c r="AV14" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AW14" t="n">
         <v>5</v>
@@ -2991,16 +3058,16 @@
         <v>15</v>
       </c>
       <c r="AY14" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AZ14" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BA14" t="n">
         <v>6</v>
       </c>
       <c r="BB14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BC14" t="n">
         <v>5</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>12-23-2007-08</t>
+          <t>2007-12-23</t>
         </is>
       </c>
     </row>
@@ -3110,19 +3177,19 @@
         <v>-3.2</v>
       </c>
       <c r="AD15" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AE15" t="n">
         <v>26</v>
       </c>
       <c r="AF15" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AG15" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AH15" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AI15" t="n">
         <v>11</v>
@@ -3131,7 +3198,7 @@
         <v>18</v>
       </c>
       <c r="AK15" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AL15" t="n">
         <v>6</v>
@@ -3143,13 +3210,13 @@
         <v>5</v>
       </c>
       <c r="AO15" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP15" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AQ15" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AR15" t="n">
         <v>26</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>12-23-2007-08</t>
+          <t>2007-12-23</t>
         </is>
       </c>
     </row>
@@ -3292,19 +3359,19 @@
         <v>-4.1</v>
       </c>
       <c r="AD16" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AE16" t="n">
         <v>26</v>
       </c>
       <c r="AF16" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AG16" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AH16" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AI16" t="n">
         <v>23</v>
@@ -3328,16 +3395,16 @@
         <v>15</v>
       </c>
       <c r="AP16" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AQ16" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AR16" t="n">
         <v>27</v>
       </c>
       <c r="AS16" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AT16" t="n">
         <v>28</v>
@@ -3355,7 +3422,7 @@
         <v>4</v>
       </c>
       <c r="AY16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AZ16" t="n">
         <v>11</v>
@@ -3364,7 +3431,7 @@
         <v>10</v>
       </c>
       <c r="BB16" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BC16" t="n">
         <v>21</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>12-23-2007-08</t>
+          <t>2007-12-23</t>
         </is>
       </c>
     </row>
@@ -3474,22 +3541,22 @@
         <v>-4.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AE17" t="n">
         <v>20</v>
       </c>
       <c r="AF17" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG17" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AH17" t="n">
         <v>2</v>
       </c>
       <c r="AI17" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AJ17" t="n">
         <v>16</v>
@@ -3516,13 +3583,13 @@
         <v>20</v>
       </c>
       <c r="AR17" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AS17" t="n">
         <v>25</v>
       </c>
       <c r="AT17" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AU17" t="n">
         <v>12</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>12-23-2007-08</t>
+          <t>2007-12-23</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-8.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AE18" t="n">
         <v>30</v>
@@ -3671,7 +3738,7 @@
         <v>24</v>
       </c>
       <c r="AI18" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AJ18" t="n">
         <v>7</v>
@@ -3698,7 +3765,7 @@
         <v>23</v>
       </c>
       <c r="AR18" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AS18" t="n">
         <v>23</v>
@@ -3710,7 +3777,7 @@
         <v>28</v>
       </c>
       <c r="AV18" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AW18" t="n">
         <v>19</v>
@@ -3719,7 +3786,7 @@
         <v>22</v>
       </c>
       <c r="AY18" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AZ18" t="n">
         <v>28</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>12-23-2007-08</t>
+          <t>2007-12-23</t>
         </is>
       </c>
     </row>
@@ -3838,13 +3905,13 @@
         <v>-5</v>
       </c>
       <c r="AD19" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AE19" t="n">
         <v>18</v>
       </c>
       <c r="AF19" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG19" t="n">
         <v>18</v>
@@ -3871,13 +3938,13 @@
         <v>30</v>
       </c>
       <c r="AO19" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AP19" t="n">
         <v>5</v>
       </c>
       <c r="AQ19" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AR19" t="n">
         <v>17</v>
@@ -3886,7 +3953,7 @@
         <v>17</v>
       </c>
       <c r="AT19" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AU19" t="n">
         <v>10</v>
@@ -3895,7 +3962,7 @@
         <v>29</v>
       </c>
       <c r="AW19" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AX19" t="n">
         <v>17</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>12-23-2007-08</t>
+          <t>2007-12-23</t>
         </is>
       </c>
     </row>
@@ -4020,7 +4087,7 @@
         <v>2.9</v>
       </c>
       <c r="AD20" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AE20" t="n">
         <v>7</v>
@@ -4029,7 +4096,7 @@
         <v>6</v>
       </c>
       <c r="AG20" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AH20" t="n">
         <v>4</v>
@@ -4047,10 +4114,10 @@
         <v>9</v>
       </c>
       <c r="AM20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AN20" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AO20" t="n">
         <v>28</v>
@@ -4059,7 +4126,7 @@
         <v>29</v>
       </c>
       <c r="AQ20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AR20" t="n">
         <v>14</v>
@@ -4077,10 +4144,10 @@
         <v>5</v>
       </c>
       <c r="AW20" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AX20" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AY20" t="n">
         <v>7</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>12-23-2007-08</t>
+          <t>2007-12-23</t>
         </is>
       </c>
     </row>
@@ -4124,85 +4191,85 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E21" t="n">
         <v>8</v>
       </c>
       <c r="F21" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G21" t="n">
-        <v>0.296</v>
+        <v>0.308</v>
       </c>
       <c r="H21" t="n">
         <v>48.4</v>
       </c>
       <c r="I21" t="n">
-        <v>34.7</v>
+        <v>34.9</v>
       </c>
       <c r="J21" t="n">
-        <v>80.59999999999999</v>
+        <v>80.8</v>
       </c>
       <c r="K21" t="n">
-        <v>0.43</v>
+        <v>0.432</v>
       </c>
       <c r="L21" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="M21" t="n">
         <v>16.7</v>
       </c>
       <c r="N21" t="n">
-        <v>0.325</v>
+        <v>0.333</v>
       </c>
       <c r="O21" t="n">
-        <v>19.3</v>
+        <v>19</v>
       </c>
       <c r="P21" t="n">
-        <v>27.5</v>
+        <v>27.1</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.7</v>
+        <v>0.699</v>
       </c>
       <c r="R21" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="S21" t="n">
-        <v>29.3</v>
+        <v>29.1</v>
       </c>
       <c r="T21" t="n">
-        <v>42.4</v>
+        <v>42</v>
       </c>
       <c r="U21" t="n">
-        <v>16.7</v>
+        <v>17.1</v>
       </c>
       <c r="V21" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="W21" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="X21" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="Y21" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="Z21" t="n">
         <v>21.7</v>
       </c>
       <c r="AA21" t="n">
-        <v>22.3</v>
+        <v>22.1</v>
       </c>
       <c r="AB21" t="n">
-        <v>94.09999999999999</v>
+        <v>94.3</v>
       </c>
       <c r="AC21" t="n">
-        <v>-7.7</v>
+        <v>-7.8</v>
       </c>
       <c r="AD21" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="AE21" t="n">
         <v>26</v>
@@ -4214,7 +4281,7 @@
         <v>26</v>
       </c>
       <c r="AH21" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI21" t="n">
         <v>26</v>
@@ -4226,31 +4293,31 @@
         <v>27</v>
       </c>
       <c r="AL21" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AM21" t="n">
         <v>17</v>
       </c>
       <c r="AN21" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AO21" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AP21" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AQ21" t="n">
         <v>29</v>
       </c>
       <c r="AR21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AS21" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AT21" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AU21" t="n">
         <v>30</v>
@@ -4259,7 +4326,7 @@
         <v>20</v>
       </c>
       <c r="AW21" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AX21" t="n">
         <v>30</v>
@@ -4271,7 +4338,7 @@
         <v>18</v>
       </c>
       <c r="BA21" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BB21" t="n">
         <v>24</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>12-23-2007-08</t>
+          <t>2007-12-23</t>
         </is>
       </c>
     </row>
@@ -4306,55 +4373,55 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E22" t="n">
         <v>18</v>
       </c>
       <c r="F22" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G22" t="n">
-        <v>0.621</v>
+        <v>0.643</v>
       </c>
       <c r="H22" t="n">
-        <v>48.3</v>
+        <v>48.4</v>
       </c>
       <c r="I22" t="n">
-        <v>36.4</v>
+        <v>36.6</v>
       </c>
       <c r="J22" t="n">
-        <v>79</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="K22" t="n">
         <v>0.461</v>
       </c>
       <c r="L22" t="n">
-        <v>9</v>
+        <v>9.1</v>
       </c>
       <c r="M22" t="n">
-        <v>25.6</v>
+        <v>25.9</v>
       </c>
       <c r="N22" t="n">
-        <v>0.353</v>
+        <v>0.351</v>
       </c>
       <c r="O22" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="P22" t="n">
-        <v>29.7</v>
+        <v>29.5</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.709</v>
+        <v>0.712</v>
       </c>
       <c r="R22" t="n">
-        <v>9.300000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="S22" t="n">
-        <v>34.1</v>
+        <v>34.4</v>
       </c>
       <c r="T22" t="n">
-        <v>43.4</v>
+        <v>43.8</v>
       </c>
       <c r="U22" t="n">
         <v>21.2</v>
@@ -4363,7 +4430,7 @@
         <v>15.5</v>
       </c>
       <c r="W22" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="X22" t="n">
         <v>4.5</v>
@@ -4378,31 +4445,31 @@
         <v>24.1</v>
       </c>
       <c r="AB22" t="n">
-        <v>102.9</v>
+        <v>103.3</v>
       </c>
       <c r="AC22" t="n">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="AD22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE22" t="n">
         <v>6</v>
       </c>
       <c r="AF22" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AG22" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AH22" t="n">
         <v>17</v>
       </c>
       <c r="AI22" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ22" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK22" t="n">
         <v>11</v>
@@ -4417,13 +4484,13 @@
         <v>14</v>
       </c>
       <c r="AO22" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AP22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AQ22" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AR22" t="n">
         <v>28</v>
@@ -4432,16 +4499,16 @@
         <v>1</v>
       </c>
       <c r="AT22" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AU22" t="n">
         <v>15</v>
       </c>
       <c r="AV22" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AW22" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AX22" t="n">
         <v>21</v>
@@ -4459,7 +4526,7 @@
         <v>7</v>
       </c>
       <c r="BC22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BD22" t="n">
         <v>10</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>12-23-2007-08</t>
+          <t>2007-12-23</t>
         </is>
       </c>
     </row>
@@ -4566,22 +4633,22 @@
         <v>-1.2</v>
       </c>
       <c r="AD23" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AE23" t="n">
         <v>20</v>
       </c>
       <c r="AF23" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG23" t="n">
         <v>22</v>
       </c>
       <c r="AH23" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AI23" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AJ23" t="n">
         <v>19</v>
@@ -4596,7 +4663,7 @@
         <v>28</v>
       </c>
       <c r="AN23" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AO23" t="n">
         <v>21</v>
@@ -4608,7 +4675,7 @@
         <v>25</v>
       </c>
       <c r="AR23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AS23" t="n">
         <v>22</v>
@@ -4620,19 +4687,19 @@
         <v>23</v>
       </c>
       <c r="AV23" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AW23" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AX23" t="n">
         <v>11</v>
       </c>
       <c r="AY23" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ23" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA23" t="n">
         <v>23</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>12-23-2007-08</t>
+          <t>2007-12-23</t>
         </is>
       </c>
     </row>
@@ -4748,10 +4815,10 @@
         <v>5.2</v>
       </c>
       <c r="AD24" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AE24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF24" t="n">
         <v>4</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>12-23-2007-08</t>
+          <t>2007-12-23</t>
         </is>
       </c>
     </row>
@@ -4930,22 +4997,22 @@
         <v>-1.4</v>
       </c>
       <c r="AD25" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE25" t="n">
         <v>9</v>
       </c>
-      <c r="AE25" t="n">
-        <v>11</v>
-      </c>
       <c r="AF25" t="n">
         <v>10</v>
       </c>
       <c r="AG25" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH25" t="n">
         <v>20</v>
       </c>
       <c r="AI25" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AJ25" t="n">
         <v>26</v>
@@ -4975,16 +5042,16 @@
         <v>25</v>
       </c>
       <c r="AS25" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AT25" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AU25" t="n">
         <v>14</v>
       </c>
       <c r="AV25" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AW25" t="n">
         <v>30</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>12-23-2007-08</t>
+          <t>2007-12-23</t>
         </is>
       </c>
     </row>
@@ -5034,91 +5101,91 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E26" t="n">
         <v>11</v>
       </c>
       <c r="F26" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G26" t="n">
-        <v>0.423</v>
+        <v>0.44</v>
       </c>
       <c r="H26" t="n">
         <v>48.4</v>
       </c>
       <c r="I26" t="n">
-        <v>35.5</v>
+        <v>35.4</v>
       </c>
       <c r="J26" t="n">
-        <v>78.7</v>
+        <v>78.2</v>
       </c>
       <c r="K26" t="n">
-        <v>0.451</v>
+        <v>0.452</v>
       </c>
       <c r="L26" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="M26" t="n">
-        <v>16.2</v>
+        <v>15.9</v>
       </c>
       <c r="N26" t="n">
-        <v>0.368</v>
+        <v>0.369</v>
       </c>
       <c r="O26" t="n">
-        <v>22.1</v>
+        <v>22.2</v>
       </c>
       <c r="P26" t="n">
-        <v>28</v>
+        <v>27.9</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.787</v>
+        <v>0.795</v>
       </c>
       <c r="R26" t="n">
         <v>10.1</v>
       </c>
       <c r="S26" t="n">
-        <v>29.1</v>
+        <v>28.8</v>
       </c>
       <c r="T26" t="n">
-        <v>39.2</v>
+        <v>38.9</v>
       </c>
       <c r="U26" t="n">
-        <v>18.1</v>
+        <v>17.9</v>
       </c>
       <c r="V26" t="n">
         <v>16.1</v>
       </c>
       <c r="W26" t="n">
-        <v>8.1</v>
+        <v>7.9</v>
       </c>
       <c r="X26" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="Y26" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="Z26" t="n">
-        <v>22.3</v>
+        <v>22.2</v>
       </c>
       <c r="AA26" t="n">
-        <v>23.9</v>
+        <v>24</v>
       </c>
       <c r="AB26" t="n">
-        <v>99</v>
+        <v>98.8</v>
       </c>
       <c r="AC26" t="n">
-        <v>-2.3</v>
+        <v>-2.4</v>
       </c>
       <c r="AD26" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="AE26" t="n">
         <v>20</v>
       </c>
       <c r="AF26" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AG26" t="n">
         <v>20</v>
@@ -5130,7 +5197,7 @@
         <v>24</v>
       </c>
       <c r="AJ26" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AK26" t="n">
         <v>14</v>
@@ -5139,28 +5206,28 @@
         <v>17</v>
       </c>
       <c r="AM26" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AN26" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AO26" t="n">
         <v>4</v>
       </c>
       <c r="AP26" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AQ26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AR26" t="n">
         <v>23</v>
       </c>
       <c r="AS26" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AT26" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AU26" t="n">
         <v>29</v>
@@ -5169,13 +5236,13 @@
         <v>24</v>
       </c>
       <c r="AW26" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AX26" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AY26" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AZ26" t="n">
         <v>23</v>
@@ -5184,7 +5251,7 @@
         <v>3</v>
       </c>
       <c r="BB26" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BC26" t="n">
         <v>19</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>12-23-2007-08</t>
+          <t>2007-12-23</t>
         </is>
       </c>
     </row>
@@ -5294,16 +5361,16 @@
         <v>6.7</v>
       </c>
       <c r="AD27" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AE27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF27" t="n">
         <v>2</v>
       </c>
       <c r="AG27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AH27" t="n">
         <v>24</v>
@@ -5315,7 +5382,7 @@
         <v>17</v>
       </c>
       <c r="AK27" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AL27" t="n">
         <v>4</v>
@@ -5351,10 +5418,10 @@
         <v>3</v>
       </c>
       <c r="AW27" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AX27" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AY27" t="n">
         <v>16</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>12-23-2007-08</t>
+          <t>2007-12-23</t>
         </is>
       </c>
     </row>
@@ -5476,19 +5543,19 @@
         <v>-6.9</v>
       </c>
       <c r="AD28" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AE28" t="n">
         <v>26</v>
       </c>
       <c r="AF28" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AG28" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AH28" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AI28" t="n">
         <v>8</v>
@@ -5533,7 +5600,7 @@
         <v>30</v>
       </c>
       <c r="AW28" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AX28" t="n">
         <v>9</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>12-23-2007-08</t>
+          <t>2007-12-23</t>
         </is>
       </c>
     </row>
@@ -5661,7 +5728,7 @@
         <v>1</v>
       </c>
       <c r="AE29" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AF29" t="n">
         <v>15</v>
@@ -5679,7 +5746,7 @@
         <v>10</v>
       </c>
       <c r="AK29" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AL29" t="n">
         <v>7</v>
@@ -5715,7 +5782,7 @@
         <v>2</v>
       </c>
       <c r="AW29" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AX29" t="n">
         <v>24</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>12-23-2007-08</t>
+          <t>2007-12-23</t>
         </is>
       </c>
     </row>
@@ -5843,7 +5910,7 @@
         <v>1</v>
       </c>
       <c r="AE30" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AF30" t="n">
         <v>15</v>
@@ -5873,28 +5940,28 @@
         <v>20</v>
       </c>
       <c r="AO30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AP30" t="n">
         <v>2</v>
       </c>
       <c r="AQ30" t="n">
+        <v>18</v>
+      </c>
+      <c r="AR30" t="n">
+        <v>6</v>
+      </c>
+      <c r="AS30" t="n">
+        <v>28</v>
+      </c>
+      <c r="AT30" t="n">
         <v>19</v>
-      </c>
-      <c r="AR30" t="n">
-        <v>5</v>
-      </c>
-      <c r="AS30" t="n">
-        <v>29</v>
-      </c>
-      <c r="AT30" t="n">
-        <v>18</v>
       </c>
       <c r="AU30" t="n">
         <v>2</v>
       </c>
       <c r="AV30" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AW30" t="n">
         <v>3</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>12-23-2007-08</t>
+          <t>2007-12-23</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>1.1</v>
       </c>
       <c r="AD31" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AE31" t="n">
         <v>16</v>
@@ -6034,7 +6101,7 @@
         <v>16</v>
       </c>
       <c r="AH31" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI31" t="n">
         <v>10</v>
@@ -6046,10 +6113,10 @@
         <v>17</v>
       </c>
       <c r="AL31" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AM31" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AN31" t="n">
         <v>22</v>
@@ -6064,13 +6131,13 @@
         <v>6</v>
       </c>
       <c r="AR31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AS31" t="n">
         <v>11</v>
       </c>
       <c r="AT31" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AU31" t="n">
         <v>26</v>
@@ -6079,7 +6146,7 @@
         <v>8</v>
       </c>
       <c r="AW31" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AX31" t="n">
         <v>10</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>12-23-2007-08</t>
+          <t>2007-12-23</t>
         </is>
       </c>
     </row>
